--- a/transformed_data.xlsx
+++ b/transformed_data.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
-  <si>
-    <t>Tenor</t>
-  </si>
-  <si>
-    <t>Product_x</t>
-  </si>
-  <si>
-    <t>OIS Rate</t>
-  </si>
-  <si>
-    <t>OIS Forward Rate</t>
-  </si>
-  <si>
-    <t>OIS Discount Factor</t>
-  </si>
-  <si>
-    <t>Product_y</t>
-  </si>
-  <si>
-    <t>IRS Rate</t>
-  </si>
-  <si>
-    <t>IRS Forward Rate</t>
-  </si>
-  <si>
-    <t>IRS Discount Factor</t>
-  </si>
-  <si>
-    <t>OIS</t>
-  </si>
-  <si>
-    <t>LIBOR</t>
-  </si>
-  <si>
-    <t>IRS</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,362 +420,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tenor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_x</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>OIS Rate</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>OIS Forward Rate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>OIS Discount Factor</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>IRS Rate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>IRS Forward Rate</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IRS Discount Factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002498447470591358</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9987515605493259</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LIBOR</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9876543209876544</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.002995398613141242</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9965195596716699</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03100671938906566</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9725761235144947</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00325</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.003494778383164032</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9930430399020703</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.03226382342539383</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9421778632977416</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00335</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.003544788862681614</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9895291609529207</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03481434413004678</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9104800959149988</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.003945605189050738</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9856325831478243</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.03583818863678379</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8789790779129675</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.003995890364434374</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9817019835725955</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0353261203214793</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8489876384457831</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>0.5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0.0025</v>
-      </c>
-      <c r="D2">
-        <v>0.002498447470591358</v>
-      </c>
-      <c r="E2">
-        <v>0.9987515605493259</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.005015351145907232</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9719284384438882</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04129825248805571</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7842142797833224</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>0.025</v>
-      </c>
-      <c r="H2">
-        <v>0.025</v>
-      </c>
-      <c r="I2">
-        <v>0.9876543209876544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.003</v>
-      </c>
-      <c r="D3">
-        <v>0.002995398613141242</v>
-      </c>
-      <c r="E3">
-        <v>0.9965195596716699</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>0.028</v>
-      </c>
-      <c r="H3">
-        <v>0.03100671938906566</v>
-      </c>
-      <c r="I3">
-        <v>0.9725761235144947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0.00325</v>
-      </c>
-      <c r="D4">
-        <v>0.003494778383164032</v>
-      </c>
-      <c r="E4">
-        <v>0.9930430399020703</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>0.03</v>
-      </c>
-      <c r="H4">
-        <v>0.03226382342539383</v>
-      </c>
-      <c r="I4">
-        <v>0.9421778632977416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0.00335</v>
-      </c>
-      <c r="D5">
-        <v>0.003544788862681614</v>
-      </c>
-      <c r="E5">
-        <v>0.9895291609529207</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>0.0315</v>
-      </c>
-      <c r="H5">
-        <v>0.03481434413004678</v>
-      </c>
-      <c r="I5">
-        <v>0.9104800959149988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0.0035</v>
-      </c>
-      <c r="D6">
-        <v>0.003945605189050738</v>
-      </c>
-      <c r="E6">
-        <v>0.9856325831478243</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>0.0325</v>
-      </c>
-      <c r="H6">
-        <v>0.03583818863678379</v>
-      </c>
-      <c r="I6">
-        <v>0.8789790779129675</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.0036</v>
-      </c>
-      <c r="D7">
-        <v>0.003995890364434374</v>
-      </c>
-      <c r="E7">
-        <v>0.9817019835725955</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>0.033</v>
-      </c>
-      <c r="H7">
-        <v>0.0353261203214793</v>
-      </c>
-      <c r="I7">
-        <v>0.8489876384457831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0.004</v>
-      </c>
-      <c r="D8">
-        <v>0.005015351145907232</v>
-      </c>
-      <c r="E8">
-        <v>0.9719284384438882</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>0.035</v>
-      </c>
-      <c r="H8">
-        <v>0.04129825248805571</v>
-      </c>
-      <c r="I8">
-        <v>0.7842142797833224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>0.0045</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.005712184400126219</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.9555076070193668</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>0.037</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.04403295386181776</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.6927083017158638</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>0.005</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.006097219062120018</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.9271561321522978</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>0.04</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.05140088240831239</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.5510786557946942</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>0.00525</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.006099902914540323</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.8996341062808557</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>0.045</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.06999396228783453</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.4082155401735996</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OIS</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>0.0055</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>0.006196159253120115</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.8469907393299669</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>0.05</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.08251529575962405</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.2236610024790618</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>